--- a/สถานะฟังก์ชั่น_2022023.xlsx
+++ b/สถานะฟังก์ชั่น_2022023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naraw\Documents\GitHub\Project_APS_CE_Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D48C5D8-725C-47AE-9ABD-E4F249F1D221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC0DAB-0DE8-46F1-9B08-B75C0359A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BDAEE04-3F0B-4E7B-AA3F-A5D1470C0DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3BDAEE04-3F0B-4E7B-AA3F-A5D1470C0DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>ชื่อฟังก์ชั่น</t>
   </si>
@@ -144,24 +144,126 @@
   </si>
   <si>
     <t>เหลือจัดรูปแบบ response</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>หน้าหลัก</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>จัดหัวข้อ</t>
+  </si>
+  <si>
+    <t>ดูว่าจะเขียนไรบ้าง</t>
+  </si>
+  <si>
+    <t>ไม่รู้ว่าจะใส่ไรดีย์</t>
+  </si>
+  <si>
+    <t>สายงานบัณฑิต</t>
+  </si>
+  <si>
+    <t>สถิติบัณฑิต</t>
+  </si>
+  <si>
+    <t>คาดการณ์สถิติบัณฑิต</t>
+  </si>
+  <si>
+    <t>เหลือรอ API ของดาต้า</t>
+  </si>
+  <si>
+    <t>พยากรณ์นักศึกษา</t>
+  </si>
+  <si>
+    <t>ดาวน์โหลดแบบฟอร์ม</t>
+  </si>
+  <si>
+    <t>พยากรณ์</t>
+  </si>
+  <si>
+    <t>โชว์หน้าพยากรณ์</t>
+  </si>
+  <si>
+    <t>รอ API</t>
+  </si>
+  <si>
+    <t>แนะนำวิชาเลือก</t>
+  </si>
+  <si>
+    <t>เลือกหลักสูตรคณะได้</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>โชว์คีย์วิชาเลือก</t>
+  </si>
+  <si>
+    <t>โชว์วิชาเลือก</t>
+  </si>
+  <si>
+    <t>โชว์ข้อมูลวิชาเลือก</t>
+  </si>
+  <si>
+    <t>เข้าสู่ระบบ</t>
+  </si>
+  <si>
+    <t>ลอคอินได้</t>
+  </si>
+  <si>
+    <t>อัปโหลดไฟล์</t>
+  </si>
+  <si>
+    <t>โชว์ไฟล์ที่มีในdatabase</t>
+  </si>
+  <si>
+    <t>ไฟล์ CSV</t>
+  </si>
+  <si>
+    <t>ลบได้</t>
+  </si>
+  <si>
+    <t>เพิ่มได้</t>
+  </si>
+  <si>
+    <t>แก้ไขได้</t>
+  </si>
+  <si>
+    <t>กดลบไฟล์ได้</t>
+  </si>
+  <si>
+    <t>เพิ่มไฟล์ได้</t>
+  </si>
+  <si>
+    <t>แก้ไขไฟล์ได้</t>
+  </si>
+  <si>
+    <t>backยังไม่เขียน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -169,7 +271,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -177,7 +279,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -185,7 +287,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -559,21 +661,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB0115-DBB8-4360-8C2D-C02F63DF314B}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -587,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -601,7 +703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -610,7 +712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -618,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -629,7 +731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -640,13 +742,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -654,7 +756,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -668,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -679,7 +781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -687,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -698,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -709,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -717,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -731,7 +833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -742,7 +844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -750,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -761,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -769,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -780,7 +882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -788,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -799,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -810,11 +912,255 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4">
         <v>0</v>
       </c>
     </row>

--- a/สถานะฟังก์ชั่น_2022023.xlsx
+++ b/สถานะฟังก์ชั่น_2022023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC0DAB-0DE8-46F1-9B08-B75C0359A2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2ED468-CA87-4E01-AA95-959562DEA9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3BDAEE04-3F0B-4E7B-AA3F-A5D1470C0DA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>ชื่อฟังก์ชั่น</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>โชว์หน้าพยากรณ์</t>
-  </si>
-  <si>
-    <t>รอ API</t>
   </si>
   <si>
     <t>แนะนำวิชาเลือก</t>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB0115-DBB8-4360-8C2D-C02F63DF314B}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -922,10 +919,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -953,7 +950,7 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>0.8</v>
       </c>
       <c r="D33" t="s">
@@ -964,7 +961,7 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
@@ -976,7 +973,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1022,46 +1019,40 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>51</v>
+      <c r="C39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
+      <c r="C40" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="4">
-        <v>0</v>
+      <c r="C41" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1069,7 +1060,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1077,7 +1068,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1085,7 +1076,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3">
         <v>0.75</v>
@@ -1093,7 +1084,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3">
         <v>0.3</v>
@@ -1101,10 +1092,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1112,7 +1103,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1120,10 +1111,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
         <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1131,7 +1122,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1139,7 +1130,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="B52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -1147,18 +1138,18 @@
     </row>
     <row r="53" spans="1:4">
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
